--- a/input_data/amount_of_days.xlsx
+++ b/input_data/amount_of_days.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mkulakov\Desktop\hack\1-st part\input_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7789CAFE-7A60-4894-A59B-9CF8085EB781}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19B77586-B209-44F0-BB2C-7F7E4AC87E30}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-225" yWindow="2160" windowWidth="18000" windowHeight="9225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="345" yWindow="2880" windowWidth="18000" windowHeight="9225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -968,7 +968,7 @@
   <dimension ref="A1:U32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1040,7 +1040,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C2">
         <v>2</v>
@@ -1102,21 +1102,26 @@
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3">
+        <f>A8</f>
         <v>28</v>
       </c>
       <c r="B3">
         <v>28</v>
       </c>
       <c r="C3">
-        <v>8</v>
-      </c>
-      <c r="D3">
-        <v>10</v>
-      </c>
-      <c r="E3">
-        <v>6</v>
-      </c>
-      <c r="F3">
+        <f>C5*2</f>
+        <v>16</v>
+      </c>
+      <c r="D3" s="10">
+        <f t="shared" ref="D3:E3" si="0">D5*2</f>
+        <v>20</v>
+      </c>
+      <c r="E3" s="10">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="F3" s="10">
+        <f>7</f>
         <v>7</v>
       </c>
       <c r="G3">
@@ -1247,59 +1252,59 @@
         <v>7</v>
       </c>
       <c r="G5" s="10">
-        <f t="shared" ref="G5:T5" si="0">G3*2</f>
+        <f t="shared" ref="G5:T5" si="1">G3*2</f>
         <v>20</v>
       </c>
       <c r="H5" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="I5" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="J5" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="K5" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="L5" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="M5" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="N5" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>26</v>
       </c>
       <c r="O5" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>44</v>
       </c>
       <c r="P5" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>26</v>
       </c>
       <c r="Q5" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="R5" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="S5" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="T5" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
     </row>
@@ -1313,6 +1318,82 @@
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B7" s="8"/>
       <c r="R7" s="6"/>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A8" s="10">
+        <v>28</v>
+      </c>
+      <c r="B8" s="10">
+        <v>28</v>
+      </c>
+      <c r="C8" s="10">
+        <v>8</v>
+      </c>
+      <c r="D8" s="10">
+        <v>10</v>
+      </c>
+      <c r="E8" s="10">
+        <v>6</v>
+      </c>
+      <c r="F8" s="10">
+        <v>7</v>
+      </c>
+      <c r="G8" s="10">
+        <f t="shared" ref="G8:T8" si="2">G6*2</f>
+        <v>0</v>
+      </c>
+      <c r="H8" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I8" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J8" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K8" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L8" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M8" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N8" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O8" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P8" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q8" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R8" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S8" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T8" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="T9">
